--- a/sports.xlsx
+++ b/sports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Siddhant\Python\programs\tkinter\Sports-Tutorial-App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23A2C8DA-9AE6-47DF-957E-2EC0B0240955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A6F78D-31A2-4838-B230-3F2F38B685DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4656" yWindow="1428" windowWidth="17280" windowHeight="8964" xr2:uid="{19D23B09-F7D0-4872-94A4-FE4D1670495F}"/>
   </bookViews>
@@ -25,21 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
-  <si>
-    <r>
-      <t>Children (Ages 0-12)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>Soccer/Football</t>
   </si>
@@ -62,20 +48,6 @@
     <t>Baseball/Softball</t>
   </si>
   <si>
-    <r>
-      <t>Teenagers (Ages 13-19)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
     <t>Volleyball</t>
   </si>
   <si>
@@ -85,26 +57,9 @@
     <t>Skateboarding</t>
   </si>
   <si>
-    <t>Snowboarding/Skiing</t>
-  </si>
-  <si>
     <t>Esports/Gaming</t>
   </si>
   <si>
-    <r>
-      <t>Young Adults (Ages 20-39)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
     <t>Running/Jogging</t>
   </si>
   <si>
@@ -117,26 +72,9 @@
     <t>Cycling</t>
   </si>
   <si>
-    <t>Ultimate Frisbee</t>
-  </si>
-  <si>
     <t>Rock Climbing</t>
   </si>
   <si>
-    <r>
-      <t>Middle-Aged Adults (Ages 40-59)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
     <t>Golf</t>
   </si>
   <si>
@@ -149,20 +87,6 @@
     <t>Soccer/Football (recreational leagues)</t>
   </si>
   <si>
-    <r>
-      <t>Older Adults (Ages 60+)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0D0D0D"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
     <t>Walking</t>
   </si>
   <si>
@@ -176,6 +100,24 @@
   </si>
   <si>
     <t>Petanque/Bocce</t>
+  </si>
+  <si>
+    <t>Badminton</t>
+  </si>
+  <si>
+    <t>Children (Ages 0-12)</t>
+  </si>
+  <si>
+    <t>Teenagers (Ages 13-19)</t>
+  </si>
+  <si>
+    <t>Young Adults (Ages 20-39)</t>
+  </si>
+  <si>
+    <t>Middle-Aged Adults (Ages 40-59)</t>
+  </si>
+  <si>
+    <t>Older Adults (Ages 60+)</t>
   </si>
 </sst>
 </file>
@@ -551,179 +493,183 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.33203125" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
     <col min="5" max="5" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.3">
